--- a/portfolios/sml_equity/profit_reports/trend/MACD_year.xlsx
+++ b/portfolios/sml_equity/profit_reports/trend/MACD_year.xlsx
@@ -1445,37 +1445,37 @@
         <v>6538</v>
       </c>
       <c r="F21">
-        <v>1807.471850269874</v>
+        <v>1807.475766739535</v>
       </c>
       <c r="G21">
-        <v>-783.0336090065633</v>
+        <v>-783.049786214894</v>
       </c>
       <c r="H21">
-        <v>0.1793988227456277</v>
+        <v>0.1793992112373928</v>
       </c>
       <c r="I21">
-        <v>-0.07641336290311386</v>
+        <v>-0.07641497844120117</v>
       </c>
       <c r="J21">
-        <v>0.02289090861363551</v>
+        <v>0.02289007102412045</v>
       </c>
       <c r="K21">
-        <v>4587363.555984944</v>
+        <v>4587373.495984944</v>
       </c>
       <c r="L21">
-        <v>-3132134.436026251</v>
+        <v>-3132199.144859574</v>
       </c>
       <c r="M21">
         <v>0.3881921076781891</v>
       </c>
       <c r="N21">
-        <v>2.308294087865549</v>
+        <v>2.308251401838076</v>
       </c>
       <c r="O21">
-        <v>1.464612598750693</v>
+        <v>1.464585514466262</v>
       </c>
       <c r="P21">
-        <v>1455229.119958693</v>
+        <v>1455174.35112537</v>
       </c>
     </row>
   </sheetData>

--- a/portfolios/sml_equity/profit_reports/trend/MACD_year.xlsx
+++ b/portfolios/sml_equity/profit_reports/trend/MACD_year.xlsx
@@ -486,46 +486,46 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D2">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="E2">
-        <v>1874</v>
+        <v>1864</v>
       </c>
       <c r="F2">
-        <v>1142.451505577244</v>
+        <v>1144.38307919425</v>
       </c>
       <c r="G2">
-        <v>-675.4710999828669</v>
+        <v>-678.0789917484562</v>
       </c>
       <c r="H2">
-        <v>0.1159777523326897</v>
+        <v>0.1162664871354343</v>
       </c>
       <c r="I2">
-        <v>-0.06800606830516778</v>
+        <v>-0.0682687876290619</v>
       </c>
       <c r="J2">
-        <v>0.01092829231000697</v>
+        <v>0.01102990072199039</v>
       </c>
       <c r="K2">
-        <v>918531.0104841029</v>
+        <v>916650.8464345935</v>
       </c>
       <c r="L2">
-        <v>-722754.0769816684</v>
+        <v>-720797.9682286098</v>
       </c>
       <c r="M2">
-        <v>0.4290288153681964</v>
+        <v>0.4297210300429185</v>
       </c>
       <c r="N2">
-        <v>1.691340318788208</v>
+        <v>1.687684020770808</v>
       </c>
       <c r="O2">
-        <v>1.27087627692123</v>
+        <v>1.271716745660785</v>
       </c>
       <c r="P2">
-        <v>195776.9335024345</v>
+        <v>195852.8782059838</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -536,46 +536,46 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D3">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="E3">
-        <v>2264</v>
+        <v>2247</v>
       </c>
       <c r="F3">
-        <v>1039.666376752236</v>
+        <v>1033.914640218658</v>
       </c>
       <c r="G3">
-        <v>-675.679967145377</v>
+        <v>-676.5741857166947</v>
       </c>
       <c r="H3">
-        <v>0.1102436904955018</v>
+        <v>0.1097089115712895</v>
       </c>
       <c r="I3">
-        <v>-0.06777678685408012</v>
+        <v>-0.06786639221842332</v>
       </c>
       <c r="J3">
-        <v>0.001968868361944248</v>
+        <v>0.001678008019648457</v>
       </c>
       <c r="K3">
-        <v>922184.0761792349</v>
+        <v>909844.8833924202</v>
       </c>
       <c r="L3">
-        <v>-930411.3147591852</v>
+        <v>-924876.9118747229</v>
       </c>
       <c r="M3">
-        <v>0.3917844522968198</v>
+        <v>0.3916332888295505</v>
       </c>
       <c r="N3">
-        <v>1.538696464754808</v>
+        <v>1.528161526179768</v>
       </c>
       <c r="O3">
-        <v>0.9911574177469245</v>
+        <v>0.983746995638768</v>
       </c>
       <c r="P3">
-        <v>-8227.238579950295</v>
+        <v>-15032.02848230267</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -586,46 +586,46 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="D4">
-        <v>1848</v>
+        <v>1827</v>
       </c>
       <c r="E4">
-        <v>3388</v>
+        <v>3361</v>
       </c>
       <c r="F4">
-        <v>1601.603377797932</v>
+        <v>1598.114591890394</v>
       </c>
       <c r="G4">
-        <v>-642.4056205708841</v>
+        <v>-644.8157321045246</v>
       </c>
       <c r="H4">
-        <v>0.1711737693137772</v>
+        <v>0.1708592716548004</v>
       </c>
       <c r="I4">
-        <v>-0.06354687213345764</v>
+        <v>-0.06377776658843408</v>
       </c>
       <c r="J4">
-        <v>0.04314432852437636</v>
+        <v>0.04331334220809127</v>
       </c>
       <c r="K4">
-        <v>2466469.201808821</v>
+        <v>2451507.783959871</v>
       </c>
       <c r="L4">
-        <v>-1187165.586814993</v>
+        <v>-1178078.342554965</v>
       </c>
       <c r="M4">
-        <v>0.4545454545454545</v>
+        <v>0.4564117822076763</v>
       </c>
       <c r="N4">
-        <v>2.493134129764683</v>
+        <v>2.478405088961663</v>
       </c>
       <c r="O4">
-        <v>2.07761177480391</v>
+        <v>2.080937825105202</v>
       </c>
       <c r="P4">
-        <v>1279303.614993829</v>
+        <v>1273429.441404906</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -636,46 +636,46 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="D5">
-        <v>1629</v>
+        <v>1612</v>
       </c>
       <c r="E5">
-        <v>2671</v>
+        <v>2645</v>
       </c>
       <c r="F5">
-        <v>1275.860238282518</v>
+        <v>1267.20155353264</v>
       </c>
       <c r="G5">
-        <v>-637.0584601835579</v>
+        <v>-638.0968716846857</v>
       </c>
       <c r="H5">
-        <v>0.1375235755688269</v>
+        <v>0.136836432055763</v>
       </c>
       <c r="I5">
-        <v>-0.06201358330171233</v>
+        <v>-0.0621039458797431</v>
       </c>
       <c r="J5">
-        <v>0.01582906721985341</v>
+        <v>0.0155918614576399</v>
       </c>
       <c r="K5">
-        <v>1329446.368290384</v>
+        <v>1309019.204799217</v>
       </c>
       <c r="L5">
-        <v>-1037768.231639016</v>
+        <v>-1028612.157155714</v>
       </c>
       <c r="M5">
-        <v>0.3901160614002246</v>
+        <v>0.3905482041587902</v>
       </c>
       <c r="N5">
-        <v>2.00273651167728</v>
+        <v>1.985907798273653</v>
       </c>
       <c r="O5">
-        <v>1.281062888377977</v>
+        <v>1.272607168496701</v>
       </c>
       <c r="P5">
-        <v>291678.1366513672</v>
+        <v>280407.0476435027</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -686,46 +686,46 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D6">
-        <v>1480</v>
+        <v>1458</v>
       </c>
       <c r="E6">
-        <v>2425</v>
+        <v>2398</v>
       </c>
       <c r="F6">
-        <v>1170.590269693596</v>
+        <v>1155.481502181168</v>
       </c>
       <c r="G6">
-        <v>-573.400120781168</v>
+        <v>-574.5511275784007</v>
       </c>
       <c r="H6">
-        <v>0.1187839615055447</v>
+        <v>0.1173086308843675</v>
       </c>
       <c r="I6">
-        <v>-0.0572866868055053</v>
+        <v>-0.05740118863322429</v>
       </c>
       <c r="J6">
-        <v>0.0113264111961203</v>
+        <v>0.0110838949141219</v>
       </c>
       <c r="K6">
-        <v>1106207.804860448</v>
+        <v>1086152.612050297</v>
       </c>
       <c r="L6">
-        <v>-848632.1787561282</v>
+        <v>-837695.5440093079</v>
       </c>
       <c r="M6">
-        <v>0.3896907216494845</v>
+        <v>0.3919933277731443</v>
       </c>
       <c r="N6">
-        <v>2.041489402023232</v>
+        <v>2.011103010190327</v>
       </c>
       <c r="O6">
-        <v>1.303518570886457</v>
+        <v>1.296595905060979</v>
       </c>
       <c r="P6">
-        <v>257575.6261043201</v>
+        <v>248457.0680409896</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -736,46 +736,46 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="D7">
-        <v>1756</v>
+        <v>1742</v>
       </c>
       <c r="E7">
-        <v>2808</v>
+        <v>2786</v>
       </c>
       <c r="F7">
-        <v>1034.143808149373</v>
+        <v>1046.581711919139</v>
       </c>
       <c r="G7">
-        <v>-527.5433955727459</v>
+        <v>-528.6141877759942</v>
       </c>
       <c r="H7">
-        <v>0.1052449804570296</v>
+        <v>0.1064986693698909</v>
       </c>
       <c r="I7">
-        <v>-0.0527761459166674</v>
+        <v>-0.05288942590220822</v>
       </c>
       <c r="J7">
-        <v>0.0064255011435639</v>
+        <v>0.006838202046130525</v>
       </c>
       <c r="K7">
-        <v>1087919.286173139</v>
+        <v>1092631.30724358</v>
       </c>
       <c r="L7">
-        <v>-926366.2026257411</v>
+        <v>-920845.9151057814</v>
       </c>
       <c r="M7">
-        <v>0.3746438746438747</v>
+        <v>0.3747307968413496</v>
       </c>
       <c r="N7">
-        <v>1.960300928469815</v>
+        <v>1.97985929269579</v>
       </c>
       <c r="O7">
-        <v>1.174394405894217</v>
+        <v>1.18655172306223</v>
       </c>
       <c r="P7">
-        <v>161553.0835473981</v>
+        <v>171785.3921377991</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -786,46 +786,46 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="D8">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="E8">
-        <v>2331</v>
+        <v>2315</v>
       </c>
       <c r="F8">
-        <v>1031.827651742009</v>
+        <v>1035.132609135504</v>
       </c>
       <c r="G8">
-        <v>-568.9446278082337</v>
+        <v>-569.9849725210119</v>
       </c>
       <c r="H8">
-        <v>0.1042178669111108</v>
+        <v>0.1045555122542369</v>
       </c>
       <c r="I8">
-        <v>-0.05712694372507545</v>
+        <v>-0.05722148318405369</v>
       </c>
       <c r="J8">
-        <v>-0.002168651299021392</v>
+        <v>-0.002294175013644831</v>
       </c>
       <c r="K8">
-        <v>819271.1554831555</v>
+        <v>813614.2307805065</v>
       </c>
       <c r="L8">
-        <v>-874467.8929412547</v>
+        <v>-871507.0229846266</v>
       </c>
       <c r="M8">
-        <v>0.3406263406263406</v>
+        <v>0.339524838012959</v>
       </c>
       <c r="N8">
-        <v>1.813581851922844</v>
+        <v>1.816070000156619</v>
       </c>
       <c r="O8">
-        <v>0.9368796294253342</v>
+        <v>0.9335716285958818</v>
       </c>
       <c r="P8">
-        <v>-55196.73745809915</v>
+        <v>-57892.79220412008</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -836,46 +836,46 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="D9">
-        <v>1721</v>
+        <v>1712</v>
       </c>
       <c r="E9">
-        <v>2427</v>
+        <v>2410</v>
       </c>
       <c r="F9">
-        <v>998.6017670376858</v>
+        <v>1008.701179353257</v>
       </c>
       <c r="G9">
-        <v>-777.6074081493351</v>
+        <v>-779.1881600577467</v>
       </c>
       <c r="H9">
-        <v>0.1028042777590461</v>
+        <v>0.103873949131873</v>
       </c>
       <c r="I9">
-        <v>-0.07772360608419568</v>
+        <v>-0.07787987431049065</v>
       </c>
       <c r="J9">
-        <v>-0.02520910835311673</v>
+        <v>-0.02523914038403022</v>
       </c>
       <c r="K9">
-        <v>705012.8475286057</v>
+        <v>704073.4231885733</v>
       </c>
       <c r="L9">
-        <v>-1338262.349425005</v>
+        <v>-1333970.130018862</v>
       </c>
       <c r="M9">
-        <v>0.2908941079522044</v>
+        <v>0.2896265560165975</v>
       </c>
       <c r="N9">
-        <v>1.284197856877811</v>
+        <v>1.294554038498867</v>
       </c>
       <c r="O9">
-        <v>0.5268121365227976</v>
+        <v>0.5278029899954492</v>
       </c>
       <c r="P9">
-        <v>-633249.5018963995</v>
+        <v>-629896.7068302884</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -886,46 +886,46 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>1743</v>
+        <v>1732</v>
       </c>
       <c r="D10">
-        <v>2630</v>
+        <v>2599</v>
       </c>
       <c r="E10">
-        <v>4373</v>
+        <v>4331</v>
       </c>
       <c r="F10">
-        <v>2081.769602914453</v>
+        <v>2072.291467075951</v>
       </c>
       <c r="G10">
-        <v>-784.64279660176</v>
+        <v>-786.3332677659623</v>
       </c>
       <c r="H10">
-        <v>0.2118665982583809</v>
+        <v>0.2108185888499272</v>
       </c>
       <c r="I10">
-        <v>-0.07757894118537426</v>
+        <v>-0.07774070692665151</v>
       </c>
       <c r="J10">
-        <v>0.03778890131416046</v>
+        <v>0.03765636079097364</v>
       </c>
       <c r="K10">
-        <v>3628524.417879894</v>
+        <v>3589208.82097555</v>
       </c>
       <c r="L10">
-        <v>-2063610.555062628</v>
+        <v>-2043680.162923735</v>
       </c>
       <c r="M10">
-        <v>0.398582209009833</v>
+        <v>0.3999076425767721</v>
       </c>
       <c r="N10">
-        <v>2.653143075970964</v>
+        <v>2.635385722600166</v>
       </c>
       <c r="O10">
-        <v>1.758337787611177</v>
+        <v>1.756247815137935</v>
       </c>
       <c r="P10">
-        <v>1564913.862817266</v>
+        <v>1545528.658051815</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -936,46 +936,46 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>1679</v>
+        <v>1654</v>
       </c>
       <c r="D11">
-        <v>2294</v>
+        <v>2275</v>
       </c>
       <c r="E11">
-        <v>3973</v>
+        <v>3929</v>
       </c>
       <c r="F11">
-        <v>1210.877534472222</v>
+        <v>1227.153118326884</v>
       </c>
       <c r="G11">
-        <v>-579.3550503529093</v>
+        <v>-580.3485045443944</v>
       </c>
       <c r="H11">
-        <v>0.1224034391385051</v>
+        <v>0.1240811905108539</v>
       </c>
       <c r="I11">
-        <v>-0.05772569767233195</v>
+        <v>-0.05782848206939645</v>
       </c>
       <c r="J11">
-        <v>0.01839733799476985</v>
+        <v>0.01875044347087688</v>
       </c>
       <c r="K11">
-        <v>2033063.38037886</v>
+        <v>2029711.257712666</v>
       </c>
       <c r="L11">
-        <v>-1329040.485509576</v>
+        <v>-1320292.847838499</v>
       </c>
       <c r="M11">
-        <v>0.4226025673294739</v>
+        <v>0.4209722575719013</v>
       </c>
       <c r="N11">
-        <v>2.090043978618338</v>
+        <v>2.114510692657453</v>
       </c>
       <c r="O11">
-        <v>1.529722685309582</v>
+        <v>1.537318982705679</v>
       </c>
       <c r="P11">
-        <v>704022.8948692833</v>
+        <v>709418.4098741664</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -986,46 +986,46 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="D12">
-        <v>2041</v>
+        <v>2030</v>
       </c>
       <c r="E12">
-        <v>3135</v>
+        <v>3115</v>
       </c>
       <c r="F12">
-        <v>1080.919508047479</v>
+        <v>1084.791035308492</v>
       </c>
       <c r="G12">
-        <v>-615.6658903131628</v>
+        <v>-613.7745384458839</v>
       </c>
       <c r="H12">
-        <v>0.1155768325122533</v>
+        <v>0.1160233992882252</v>
       </c>
       <c r="I12">
-        <v>-0.0614333435942266</v>
+        <v>-0.06125215637653859</v>
       </c>
       <c r="J12">
-        <v>0.0003367146706820756</v>
+        <v>0.0004955090797273362</v>
       </c>
       <c r="K12">
-        <v>1182525.941803941</v>
+        <v>1176998.273309714</v>
       </c>
       <c r="L12">
-        <v>-1256574.082129164</v>
+        <v>-1245962.313045143</v>
       </c>
       <c r="M12">
-        <v>0.34896331738437</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="N12">
-        <v>1.755691723473037</v>
+        <v>1.767409638815015</v>
       </c>
       <c r="O12">
-        <v>0.9410714088581594</v>
+        <v>0.9446499793666465</v>
       </c>
       <c r="P12">
-        <v>-74048.1403252231</v>
+        <v>-68964.03973542945</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1036,46 +1036,46 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>1481</v>
+        <v>1462</v>
       </c>
       <c r="D13">
-        <v>2282</v>
+        <v>2264</v>
       </c>
       <c r="E13">
-        <v>3763</v>
+        <v>3726</v>
       </c>
       <c r="F13">
-        <v>1099.678194281329</v>
+        <v>1091.591217233229</v>
       </c>
       <c r="G13">
-        <v>-557.0536883408521</v>
+        <v>-555.0845890207484</v>
       </c>
       <c r="H13">
-        <v>0.1153324449922478</v>
+        <v>0.1146091934118741</v>
       </c>
       <c r="I13">
-        <v>-0.05555112906891209</v>
+        <v>-0.05543524584678286</v>
       </c>
       <c r="J13">
-        <v>0.01170334161527008</v>
+        <v>0.01128643160790209</v>
       </c>
       <c r="K13">
-        <v>1628623.405730647</v>
+        <v>1595906.359594978</v>
       </c>
       <c r="L13">
-        <v>-1271196.516793824</v>
+        <v>-1256711.509542974</v>
       </c>
       <c r="M13">
-        <v>0.3935689609354239</v>
+        <v>0.3923778851315083</v>
       </c>
       <c r="N13">
-        <v>1.974097321851774</v>
+        <v>1.966531297795454</v>
       </c>
       <c r="O13">
-        <v>1.281173590561996</v>
+        <v>1.269906694954484</v>
       </c>
       <c r="P13">
-        <v>357426.8889368223</v>
+        <v>339194.8500520042</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1086,46 +1086,46 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>1855</v>
+        <v>1843</v>
       </c>
       <c r="D14">
-        <v>2478</v>
+        <v>2452</v>
       </c>
       <c r="E14">
-        <v>4333</v>
+        <v>4295</v>
       </c>
       <c r="F14">
-        <v>1066.974280083933</v>
+        <v>1065.884872302433</v>
       </c>
       <c r="G14">
-        <v>-484.5973837970739</v>
+        <v>-484.674831650149</v>
       </c>
       <c r="H14">
-        <v>0.1072847697575256</v>
+        <v>0.1071775333938199</v>
       </c>
       <c r="I14">
-        <v>-0.04815201338574781</v>
+        <v>-0.04815722206655487</v>
       </c>
       <c r="J14">
-        <v>0.01839200524586367</v>
+        <v>0.01849748208093547</v>
       </c>
       <c r="K14">
-        <v>1979237.289555695</v>
+        <v>1964425.819653384</v>
       </c>
       <c r="L14">
-        <v>-1200832.317049152</v>
+        <v>-1188422.687206169</v>
       </c>
       <c r="M14">
-        <v>0.4281098546042003</v>
+        <v>0.4291036088474971</v>
       </c>
       <c r="N14">
-        <v>2.201774742825954</v>
+        <v>2.199175205102906</v>
       </c>
       <c r="O14">
-        <v>1.648221205787787</v>
+        <v>1.652968965336316</v>
       </c>
       <c r="P14">
-        <v>778404.9725065434</v>
+        <v>776003.1324472157</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1136,46 +1136,46 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="D15">
-        <v>2081</v>
+        <v>2070</v>
       </c>
       <c r="E15">
-        <v>3259</v>
+        <v>3242</v>
       </c>
       <c r="F15">
-        <v>1037.489547729651</v>
+        <v>1040.768102913281</v>
       </c>
       <c r="G15">
-        <v>-549.2289385381004</v>
+        <v>-549.217332533061</v>
       </c>
       <c r="H15">
-        <v>0.1043204991915214</v>
+        <v>0.1046125161859281</v>
       </c>
       <c r="I15">
-        <v>-0.0545726909983548</v>
+        <v>-0.05457258570722654</v>
       </c>
       <c r="J15">
-        <v>0.002860932212346105</v>
+        <v>0.002973663342365449</v>
       </c>
       <c r="K15">
-        <v>1222162.687225529</v>
+        <v>1219780.216614366</v>
       </c>
       <c r="L15">
-        <v>-1142945.421097788</v>
+        <v>-1136879.878343437</v>
       </c>
       <c r="M15">
-        <v>0.3614605707272169</v>
+        <v>0.3615052436767427</v>
       </c>
       <c r="N15">
-        <v>1.888992867876134</v>
+        <v>1.895002290100942</v>
       </c>
       <c r="O15">
-        <v>1.069309754136514</v>
+        <v>1.072919171013673</v>
       </c>
       <c r="P15">
-        <v>79217.2661277419</v>
+        <v>82900.33827092894</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1186,46 +1186,46 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="D16">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="E16">
-        <v>3434</v>
+        <v>3417</v>
       </c>
       <c r="F16">
-        <v>912.35945049682</v>
+        <v>908.1881843908076</v>
       </c>
       <c r="G16">
-        <v>-591.5544766056912</v>
+        <v>-591.4227875012275</v>
       </c>
       <c r="H16">
-        <v>0.09184059783633197</v>
+        <v>0.09146085340983208</v>
       </c>
       <c r="I16">
-        <v>-0.05886425420713371</v>
+        <v>-0.058853642517681</v>
       </c>
       <c r="J16">
-        <v>-0.01001902988436819</v>
+        <v>-0.01020048697310124</v>
       </c>
       <c r="K16">
-        <v>1015456.068402961</v>
+        <v>1004456.131936234</v>
       </c>
       <c r="L16">
-        <v>-1372997.940201811</v>
+        <v>-1366778.061915339</v>
       </c>
       <c r="M16">
-        <v>0.3241118229470006</v>
+        <v>0.3236757389522973</v>
       </c>
       <c r="N16">
-        <v>1.542308420573353</v>
+        <v>1.53559890417466</v>
       </c>
       <c r="O16">
-        <v>0.7395903800509006</v>
+        <v>0.7349080000074307</v>
       </c>
       <c r="P16">
-        <v>-357541.87179885</v>
+        <v>-362321.9299791048</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1236,46 +1236,46 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>2008</v>
+        <v>1992</v>
       </c>
       <c r="D17">
-        <v>2843</v>
+        <v>2827</v>
       </c>
       <c r="E17">
-        <v>4851</v>
+        <v>4819</v>
       </c>
       <c r="F17">
-        <v>1065.364191933455</v>
+        <v>1070.111489358152</v>
       </c>
       <c r="G17">
-        <v>-546.3905432673822</v>
+        <v>-547.4866193677728</v>
       </c>
       <c r="H17">
-        <v>0.1071515911329439</v>
+        <v>0.1076160989662844</v>
       </c>
       <c r="I17">
-        <v>-0.05428891168665057</v>
+        <v>-0.05439794744159979</v>
       </c>
       <c r="J17">
-        <v>0.01253700661096755</v>
+        <v>0.01257278931799868</v>
       </c>
       <c r="K17">
-        <v>2139251.297402377</v>
+        <v>2131662.086801437</v>
       </c>
       <c r="L17">
-        <v>-1553388.314509169</v>
+        <v>-1547744.672952696</v>
       </c>
       <c r="M17">
-        <v>0.4139352710781282</v>
+        <v>0.413363768416684</v>
       </c>
       <c r="N17">
-        <v>1.949821798822948</v>
+        <v>1.954589302280842</v>
       </c>
       <c r="O17">
-        <v>1.377151660934391</v>
+        <v>1.377269858557987</v>
       </c>
       <c r="P17">
-        <v>585862.9828932078</v>
+        <v>583917.4138487414</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1286,46 +1286,46 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="D18">
-        <v>2758</v>
+        <v>2736</v>
       </c>
       <c r="E18">
-        <v>4440</v>
+        <v>4411</v>
       </c>
       <c r="F18">
-        <v>1153.809948419322</v>
+        <v>1144.315954102867</v>
       </c>
       <c r="G18">
-        <v>-536.1667371924319</v>
+        <v>-535.7679475061136</v>
       </c>
       <c r="H18">
-        <v>0.1154655557703396</v>
+        <v>0.1145522627810754</v>
       </c>
       <c r="I18">
-        <v>-0.0532300527231778</v>
+        <v>-0.05318711397743991</v>
       </c>
       <c r="J18">
-        <v>0.01067670707098809</v>
+        <v>0.01050897672093083</v>
       </c>
       <c r="K18">
-        <v>1940708.333241299</v>
+        <v>1916729.223122303</v>
       </c>
       <c r="L18">
-        <v>-1478747.861176727</v>
+        <v>-1465861.104376727</v>
       </c>
       <c r="M18">
-        <v>0.3788288288288288</v>
+        <v>0.3797324869644071</v>
       </c>
       <c r="N18">
-        <v>2.151961075506287</v>
+        <v>2.135842503138562</v>
       </c>
       <c r="O18">
-        <v>1.312399756708329</v>
+        <v>1.307579017820574</v>
       </c>
       <c r="P18">
-        <v>461960.4720645719</v>
+        <v>450868.1187455754</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1336,46 +1336,46 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="D19">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="E19">
-        <v>4083</v>
+        <v>4065</v>
       </c>
       <c r="F19">
-        <v>1178.059063700553</v>
+        <v>1200.111379838864</v>
       </c>
       <c r="G19">
-        <v>-572.6310933063055</v>
+        <v>-572.865577361677</v>
       </c>
       <c r="H19">
-        <v>0.1165965901662121</v>
+        <v>0.1186258262530552</v>
       </c>
       <c r="I19">
-        <v>-0.05701370639928652</v>
+        <v>-0.05703796611577005</v>
       </c>
       <c r="J19">
-        <v>0.003917852498180907</v>
+        <v>0.004541592094703748</v>
       </c>
       <c r="K19">
-        <v>1688158.638282892</v>
+        <v>1710158.716270382</v>
       </c>
       <c r="L19">
-        <v>-1517472.397261714</v>
+        <v>-1512365.124234831</v>
       </c>
       <c r="M19">
-        <v>0.3509674259123194</v>
+        <v>0.3505535055350554</v>
       </c>
       <c r="N19">
-        <v>2.057274006723205</v>
+        <v>2.094926676107784</v>
       </c>
       <c r="O19">
-        <v>1.112480623258244</v>
+        <v>1.130784285399085</v>
       </c>
       <c r="P19">
-        <v>170686.2410211784</v>
+        <v>197793.5920355509</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1386,46 +1386,46 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>1928</v>
+        <v>1919</v>
       </c>
       <c r="D20">
-        <v>3328</v>
+        <v>3314</v>
       </c>
       <c r="E20">
-        <v>5256</v>
+        <v>5233</v>
       </c>
       <c r="F20">
-        <v>1140.389663049494</v>
+        <v>1145.732746977254</v>
       </c>
       <c r="G20">
-        <v>-608.8174634183767</v>
+        <v>-609.6339503149388</v>
       </c>
       <c r="H20">
-        <v>0.1135696447790304</v>
+        <v>0.1141038991626735</v>
       </c>
       <c r="I20">
-        <v>-0.06063127930935441</v>
+        <v>-0.06071198893315322</v>
       </c>
       <c r="J20">
-        <v>0.003268907456704492</v>
+        <v>0.003394964870762576</v>
       </c>
       <c r="K20">
-        <v>2198671.270359428</v>
+        <v>2198661.141449352</v>
       </c>
       <c r="L20">
-        <v>-2026144.518256358</v>
+        <v>-2020326.911343707</v>
       </c>
       <c r="M20">
-        <v>0.3668188736681887</v>
+        <v>0.3667112554939805</v>
       </c>
       <c r="N20">
-        <v>1.873122457175351</v>
+        <v>1.879378184868747</v>
       </c>
       <c r="O20">
-        <v>1.085150269661683</v>
+        <v>1.088269986953268</v>
       </c>
       <c r="P20">
-        <v>172526.75210307</v>
+        <v>178334.2301056448</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1436,46 +1436,46 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>2538</v>
+        <v>2508</v>
       </c>
       <c r="D21">
-        <v>4000</v>
+        <v>3965</v>
       </c>
       <c r="E21">
-        <v>6538</v>
+        <v>6473</v>
       </c>
       <c r="F21">
-        <v>1807.475766739535</v>
+        <v>1786.309786489659</v>
       </c>
       <c r="G21">
-        <v>-783.049786214894</v>
+        <v>-784.473412366504</v>
       </c>
       <c r="H21">
-        <v>0.1793992112373928</v>
+        <v>0.1772687735964914</v>
       </c>
       <c r="I21">
-        <v>-0.07641497844120117</v>
+        <v>-0.0765433480535273</v>
       </c>
       <c r="J21">
-        <v>0.02289007102412045</v>
+        <v>0.02179757595361754</v>
       </c>
       <c r="K21">
-        <v>4587373.495984944</v>
+        <v>4480064.944516069</v>
       </c>
       <c r="L21">
-        <v>-3132199.144859574</v>
+        <v>-3110437.080033188</v>
       </c>
       <c r="M21">
-        <v>0.3881921076781891</v>
+        <v>0.3874555847365982</v>
       </c>
       <c r="N21">
-        <v>2.308251401838076</v>
+        <v>2.277081362261771</v>
       </c>
       <c r="O21">
-        <v>1.464585514466262</v>
+        <v>1.440332927251583</v>
       </c>
       <c r="P21">
-        <v>1455174.35112537</v>
+        <v>1369627.864482882</v>
       </c>
     </row>
   </sheetData>
